--- a/SPIE2017/RegistrationMetrics.xlsx
+++ b/SPIE2017/RegistrationMetrics.xlsx
@@ -14,28 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Patient #</t>
   </si>
   <si>
-    <t>Max Haus. Dist</t>
+    <t>Average</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Avg Haus. Dist</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>StdDev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -54,13 +66,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,66 +454,67 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>17.03</v>
-      </c>
-      <c r="D3">
-        <v>2.58</v>
+      <c r="C3" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
       </c>
       <c r="E3">
         <v>7.69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>28.79</v>
-      </c>
-      <c r="D4">
-        <v>3.24</v>
+      <c r="C4" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>24</v>
       </c>
       <c r="E4">
         <v>9.89</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D5">
-        <v>2.6</v>
+      <c r="C5" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>17.7</v>
       </c>
       <c r="E5">
         <v>7.91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>18.71</v>
-      </c>
-      <c r="D6">
-        <v>2.96</v>
+      <c r="C6" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>18.100000000000001</v>
       </c>
       <c r="E6">
         <v>9.2899999999999991</v>
@@ -445,22 +522,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f>AVERAGE(C3:C6)</f>
-        <v>21.032499999999999</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
         <f>AVERAGE(D3:D6)</f>
-        <v>2.8449999999999998</v>
+        <v>19.950000000000003</v>
       </c>
       <c r="E8">
         <f>AVERAGE(E3:E6)</f>
         <v>8.6950000000000003</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.STDEV.S(C3:C6)</f>
+        <v>0.29439202887759491</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.STDEV.S(D3:D6)</f>
+        <v>2.8803934916373053</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>